--- a/алгосы/курс/статы.xlsx
+++ b/алгосы/курс/статы.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\алгосы\курс\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC105B20-4ED6-4608-8F51-60F5A85C515A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F20BBC7-D3DC-498D-8D17-F3EA22181503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,8 +175,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -184,10 +188,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2473,9 +2473,2408 @@
       <c:valAx>
         <c:axId val="1571126912"/>
         <c:scaling>
-          <c:logBase val="5"/>
           <c:orientation val="minMax"/>
           <c:min val="500000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1571126432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Перестановки</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>пузырьковая</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11659700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93171033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>314369565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>745706964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1456885285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2518629325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3999316375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1FD1-4D6D-8571-65ACA54D15F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>отбор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>129240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>517680</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1165320</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2072160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3238200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4663440</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6347880</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1FD1-4D6D-8571-65ACA54D15F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>вставка</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11659700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93171033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>314369565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>745706964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1456885285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2518629325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3999316375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1FD1-4D6D-8571-65ACA54D15F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>шелл</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>728320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3750892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9332381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19464599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37295269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46205785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60286058</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1FD1-4D6D-8571-65ACA54D15F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>быстрая</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>385796</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5420589</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13259784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26653303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48800720</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63104645</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83652444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1FD1-4D6D-8571-65ACA54D15F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1571126432"/>
+        <c:axId val="1571126912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1571126432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2520"/>
+          <c:min val="360"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1571126912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1571126912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1571126432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнения</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>пузырьковая</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.43585347900202737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.31205972749446287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4261168465555628E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67947126448908024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7599326161871629</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3720072791708553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6220573090512103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E19D-4DD9-97FC-1B3C16AE751B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>отбор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.44464325788014186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.38267258797898029</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.21438910415917917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11338822138478748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65384041645844571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4601485088673216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5854935264169412</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E19D-4DD9-97FC-1B3C16AE751B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>вставка</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.44900291823184962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.41788499052566486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.33359424234264085</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1693624687012554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10129371892342073</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50524630123981507</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0684753209286657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E19D-4DD9-97FC-1B3C16AE751B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>шелл</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.45286017653847077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.4504801568457828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.44594607261680552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.43899354915646993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.428229638153723</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.41819590013986901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.40644219958366989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E19D-4DD9-97FC-1B3C16AE751B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>быстрая</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.45316876047058191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.44908008444728575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.4425797505639753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.43258232905817828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.41807282744479812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.40324248998870865</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.38555446258683923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E19D-4DD9-97FC-1B3C16AE751B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1571126432"/>
+        <c:axId val="1571126912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1571126432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2520"/>
+          <c:min val="360"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1571126912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1571126912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1571126432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Перестановки</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>пузырьковая</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.44905202314178322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.41808168373035715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.33403700722691676</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1701497886499401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10006336052550224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50347442100783779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0660634354778047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0AF6-4CDD-8685-D86D3A3B6027}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>отбор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.45343303675825636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.45328544846349766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.45303937678391398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.45269482171950526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.45225178327027143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.45171026143621262</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.45107025621732871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0AF6-4CDD-8685-D86D3A3B6027}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>вставка</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.44905202314178322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.41808168373035715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.33403700722691676</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.1701497886499401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10006336052550224</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50347442100783779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0660634354778047</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0AF6-4CDD-8685-D86D3A3B6027}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>шелл</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.4532054155152741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.45205698526281496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.44993629109196709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.44608654138353621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.43931175459611937</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.43592619218787187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.43057637372992152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0AF6-4CDD-8685-D86D3A3B6027}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>быстрая</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2520</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$31:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.45333555796474873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.45142258166639432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.44844406909732182</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.4433551837352902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.43494024318246682</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.4295054478495825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.4216982842839006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0AF6-4CDD-8685-D86D3A3B6027}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1571126432"/>
+        <c:axId val="1571126912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1571126432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2520"/>
+          <c:min val="360"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1571126912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1571126912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2731,6 +5130,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3764,6 +6283,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4388,6 +8455,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65DB00EF-7278-4262-A200-370D2159D06A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF728BF-6C03-4E0D-B55C-763EDB9BAB86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839E11F6-BFDF-4D12-A154-26F91A86DB48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4661,8 +8842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4727,11 +8908,11 @@
         <f>SUM(C9:I18)/COUNT(C9:I18)</f>
         <v>1193526921.6142857</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O2" s="4"/>
@@ -4742,44 +8923,44 @@
         <f>SQRT(SUM(C34:I43)/(COUNT(C34:I43)-1))</f>
         <v>2631916038.0246725</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -4818,7 +8999,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4847,7 +9028,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -4874,7 +9055,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4903,7 +9084,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -4930,7 +9111,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -4959,7 +9140,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -4986,7 +9167,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -5015,7 +9196,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -5042,7 +9223,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5071,7 +9252,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
@@ -5109,17 +9290,17 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -5158,7 +9339,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -5194,7 +9375,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
@@ -5228,7 +9409,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -5264,7 +9445,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
@@ -5298,7 +9479,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -5334,7 +9515,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
@@ -5368,7 +9549,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -5404,7 +9585,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="2" t="s">
         <v>13</v>
       </c>
@@ -5438,7 +9619,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -5474,7 +9655,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="2" t="s">
         <v>13</v>
       </c>
